--- a/Data_preparation/datasets/final_data/UIPATH_INC_CLASS_A.xlsx
+++ b/Data_preparation/datasets/final_data/UIPATH_INC_CLASS_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,69 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -715,22 +652,22 @@
         <v>43861</v>
       </c>
       <c r="D2">
-        <v>23.6926327642264</v>
+        <v>65.5</v>
       </c>
       <c r="E2">
-        <v>20.75907325744629</v>
+        <v>72</v>
       </c>
       <c r="F2">
-        <v>25.38844422011294</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="G2">
-        <v>19.00478605726309</v>
+        <v>64.83999633789062</v>
       </c>
       <c r="H2">
-        <v>862100000</v>
+        <v>453568899</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-213740000</v>
@@ -759,22 +696,22 @@
         <v>43951</v>
       </c>
       <c r="D3">
-        <v>29.1299991607666</v>
+        <v>65.5</v>
       </c>
       <c r="E3">
-        <v>36.31999969482422</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>36.45000076293945</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="G3">
-        <v>26.57999992370605</v>
+        <v>64.83999633789062</v>
       </c>
       <c r="H3">
-        <v>2085418676</v>
+        <v>453568899</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>113103000</v>
@@ -836,22 +773,22 @@
         <v>44043</v>
       </c>
       <c r="D4">
-        <v>49.18523125628565</v>
+        <v>65.5</v>
       </c>
       <c r="E4">
-        <v>44.42190551757812</v>
+        <v>72</v>
       </c>
       <c r="F4">
-        <v>50.24917073284447</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="G4">
-        <v>41.23985008431981</v>
+        <v>64.83999633789062</v>
       </c>
       <c r="H4">
-        <v>1122466035</v>
+        <v>453568899</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>139376000</v>
@@ -913,22 +850,22 @@
         <v>44135</v>
       </c>
       <c r="D5">
-        <v>478.8699951171875</v>
+        <v>65.5</v>
       </c>
       <c r="E5">
-        <v>490.7000122070313</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>518.72998046875</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="G5">
-        <v>463.4100036621094</v>
+        <v>64.83999633789062</v>
       </c>
       <c r="H5">
-        <v>424926346</v>
+        <v>453568899</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>147289000</v>
@@ -990,22 +927,22 @@
         <v>44227</v>
       </c>
       <c r="D6">
-        <v>239.3500061035156</v>
+        <v>65.5</v>
       </c>
       <c r="E6">
-        <v>283.4599914550781</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>354.8200073242188</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="G6">
-        <v>235.8800048828125</v>
+        <v>64.83999633789062</v>
       </c>
       <c r="H6">
-        <v>278228356</v>
+        <v>453568899</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-453366000</v>
@@ -1085,22 +1022,22 @@
         <v>44316</v>
       </c>
       <c r="D7">
-        <v>55.13000106811523</v>
+        <v>72.33000183105469</v>
       </c>
       <c r="E7">
-        <v>54.95000076293945</v>
+        <v>79.81999969482422</v>
       </c>
       <c r="F7">
-        <v>56.47000122070312</v>
+        <v>90</v>
       </c>
       <c r="G7">
-        <v>47.61999893188477</v>
+        <v>61.5</v>
       </c>
       <c r="H7">
-        <v>150594095</v>
+        <v>453568899</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>37191242520</v>
@@ -1201,22 +1138,22 @@
         <v>44408</v>
       </c>
       <c r="D8">
-        <v>82.94634035907019</v>
+        <v>61.97999954223633</v>
       </c>
       <c r="E8">
-        <v>84.26999664306641</v>
+        <v>63.20000076293945</v>
       </c>
       <c r="F8">
-        <v>86.77550126072052</v>
+        <v>66.06999969482422</v>
       </c>
       <c r="G8">
-        <v>82.34123106917598</v>
+        <v>58.52999877929688</v>
       </c>
       <c r="H8">
-        <v>2850792605</v>
+        <v>453568899</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>31832465608</v>
@@ -1317,22 +1254,22 @@
         <v>44500</v>
       </c>
       <c r="D9">
-        <v>80.87172081815871</v>
+        <v>50.16999816894531</v>
       </c>
       <c r="E9">
-        <v>78.30628967285156</v>
+        <v>48.25</v>
       </c>
       <c r="F9">
-        <v>84.50996293035827</v>
+        <v>59.56999969482422</v>
       </c>
       <c r="G9">
-        <v>78.21299557369527</v>
+        <v>46.65999984741211</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>453568899</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>25805149177</v>
@@ -1433,22 +1370,22 @@
         <v>44592</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>37.29000091552734</v>
       </c>
       <c r="E10">
-        <v>153.5630035400391</v>
+        <v>34.70999908447266</v>
       </c>
       <c r="F10">
-        <v>163.8345031738281</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>138.3329925537109</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="H10">
-        <v>10664912097</v>
+        <v>453568899</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>19186584794</v>
@@ -1549,22 +1486,22 @@
         <v>44681</v>
       </c>
       <c r="D11">
-        <v>150.5399932861328</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>153.7299957275391</v>
+        <v>17.06999969482422</v>
       </c>
       <c r="F11">
-        <v>158.7100067138672</v>
+        <v>19.19000053405762</v>
       </c>
       <c r="G11">
-        <v>132.3200073242188</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="H11">
-        <v>272490000</v>
+        <v>453568899</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>9665416381</v>
@@ -1665,22 +1602,22 @@
         <v>44773</v>
       </c>
       <c r="D12">
-        <v>3.940000057220459</v>
+        <v>18.02000045776367</v>
       </c>
       <c r="E12">
-        <v>3.509999990463257</v>
+        <v>16.45000076293945</v>
       </c>
       <c r="F12">
-        <v>4.380000114440918</v>
+        <v>22.19000053405762</v>
       </c>
       <c r="G12">
-        <v>3.339999914169312</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="H12">
-        <v>448228270</v>
+        <v>453568899</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>9984941813</v>
@@ -1781,22 +1718,22 @@
         <v>44865</v>
       </c>
       <c r="D13">
-        <v>83.23999786376953</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="E13">
-        <v>75.77999877929688</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="F13">
-        <v>86.87999725341797</v>
+        <v>14.04500007629394</v>
       </c>
       <c r="G13">
-        <v>66.44699859619141</v>
+        <v>10.39599990844727</v>
       </c>
       <c r="H13">
-        <v>323270704</v>
+        <v>453568899</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>6952525337</v>
@@ -1897,22 +1834,22 @@
         <v>44957</v>
       </c>
       <c r="D14">
-        <v>3.789999961853027</v>
+        <v>15.52999973297119</v>
       </c>
       <c r="E14">
-        <v>3.700000047683716</v>
+        <v>14.84000015258789</v>
       </c>
       <c r="F14">
-        <v>4.099999904632568</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="G14">
-        <v>3.440000057220459</v>
+        <v>14.44999980926514</v>
       </c>
       <c r="H14">
-        <v>72969110</v>
+        <v>453568899</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>8491548687</v>
@@ -2013,22 +1950,22 @@
         <v>45046</v>
       </c>
       <c r="D15">
-        <v>80.47000122070312</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="E15">
-        <v>81.30999755859375</v>
+        <v>17.88999938964844</v>
       </c>
       <c r="F15">
-        <v>87.41999816894531</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="G15">
-        <v>75.16000366210938</v>
+        <v>12.375</v>
       </c>
       <c r="H15">
-        <v>136895573</v>
+        <v>453568899</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>7848512841</v>
@@ -2129,22 +2066,22 @@
         <v>45138</v>
       </c>
       <c r="D16">
-        <v>572.4199829101562</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="E16">
-        <v>546.52001953125</v>
+        <v>15.8100004196167</v>
       </c>
       <c r="F16">
-        <v>579.1199951171875</v>
+        <v>17.8700008392334</v>
       </c>
       <c r="G16">
-        <v>477.510009765625</v>
+        <v>14.11999988555908</v>
       </c>
       <c r="H16">
-        <v>52693110</v>
+        <v>453568899</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>10145813173</v>
@@ -2245,22 +2182,22 @@
         <v>45230</v>
       </c>
       <c r="D17">
-        <v>204.0399932861328</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="E17">
-        <v>240.0800018310547</v>
+        <v>19.76000022888184</v>
       </c>
       <c r="F17">
-        <v>252.75</v>
+        <v>20.30500030517578</v>
       </c>
       <c r="G17">
-        <v>197.8500061035156</v>
+        <v>15.07999992370606</v>
       </c>
       <c r="H17">
-        <v>3325150886</v>
+        <v>453568899</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>8801442584</v>
@@ -2361,22 +2298,22 @@
         <v>45322</v>
       </c>
       <c r="D18">
-        <v>354.4882078035527</v>
+        <v>23.10000038146973</v>
       </c>
       <c r="E18">
-        <v>364.9865112304687</v>
+        <v>23.75</v>
       </c>
       <c r="F18">
-        <v>370.4596485847449</v>
+        <v>27.8700008392334</v>
       </c>
       <c r="G18">
-        <v>349.5896494174895</v>
+        <v>22.15999984741211</v>
       </c>
       <c r="H18">
-        <v>622000000</v>
+        <v>453568899</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>13008478392</v>
@@ -2477,22 +2414,22 @@
         <v>45412</v>
       </c>
       <c r="D19">
-        <v>32.91999816894531</v>
+        <v>19.01000022888184</v>
       </c>
       <c r="E19">
-        <v>29.47999954223633</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="F19">
-        <v>34.43000030517578</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="G19">
-        <v>29.14999961853028</v>
+        <v>11.71000003814697</v>
       </c>
       <c r="H19">
-        <v>48253392</v>
+        <v>453568899</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>10794162515</v>
@@ -2593,22 +2530,22 @@
         <v>45504</v>
       </c>
       <c r="D20">
-        <v>65.3347813084503</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="E20">
-        <v>75.98967742919922</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="F20">
-        <v>78.74061759069839</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="G20">
-        <v>53.01535875336031</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="H20">
-        <v>862100000</v>
+        <v>453568899</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>6970703185</v>
@@ -2709,22 +2646,22 @@
         <v>45596</v>
       </c>
       <c r="D21">
-        <v>171.1399993896484</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="E21">
-        <v>336.75</v>
+        <v>14.21000003814697</v>
       </c>
       <c r="F21">
-        <v>344.7699890136719</v>
+        <v>14.90499973297119</v>
       </c>
       <c r="G21">
-        <v>158.3300018310547</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="H21">
-        <v>307636373</v>
+        <v>453568899</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>6797474997</v>
@@ -2825,22 +2762,22 @@
         <v>45688</v>
       </c>
       <c r="D22">
-        <v>29.5</v>
+        <v>13.72000026702881</v>
       </c>
       <c r="E22">
-        <v>23.45000076293945</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="F22">
-        <v>35.97999954223633</v>
+        <v>15.39999961853027</v>
       </c>
       <c r="G22">
-        <v>22.81999969482422</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="H22">
-        <v>134349704</v>
+        <v>453568899</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>7815296770</v>
@@ -2953,22 +2890,22 @@
         <v>45777</v>
       </c>
       <c r="D23">
-        <v>160.2100067138672</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E23">
-        <v>168.3200073242188</v>
+        <v>13.3100004196167</v>
       </c>
       <c r="F23">
-        <v>174.2599945068359</v>
+        <v>14.98499965667725</v>
       </c>
       <c r="G23">
-        <v>151.6699981689453</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="H23">
-        <v>119792704</v>
+        <v>453568899</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>6584825429</v>
@@ -3069,22 +3006,22 @@
         <v>45869</v>
       </c>
       <c r="D24">
-        <v>77.06999969482422</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="E24">
-        <v>62.86999893188477</v>
+        <v>11.11999988555908</v>
       </c>
       <c r="F24">
-        <v>80.05999755859375</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="G24">
-        <v>62.61999893188477</v>
+        <v>10.35000038146973</v>
       </c>
       <c r="H24">
-        <v>862100000</v>
+        <v>453568899</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>6286706523</v>
